--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Pdpn-Clec1b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Pdpn-Clec1b.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>2.288007333333333</v>
+        <v>0.1753503333333334</v>
       </c>
       <c r="H2">
-        <v>6.864021999999999</v>
+        <v>0.526051</v>
       </c>
       <c r="I2">
-        <v>0.02156675330991967</v>
+        <v>0.002060424806616007</v>
       </c>
       <c r="J2">
-        <v>0.0231206715889534</v>
+        <v>0.002147484514575959</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.967408</v>
+        <v>1.772429333333333</v>
       </c>
       <c r="N2">
-        <v>11.902224</v>
+        <v>5.317288</v>
       </c>
       <c r="O2">
-        <v>0.5020512342458132</v>
+        <v>0.2841077240522499</v>
       </c>
       <c r="P2">
-        <v>0.5020512342458132</v>
+        <v>0.2841077240522499</v>
       </c>
       <c r="Q2">
-        <v>9.077458598325334</v>
+        <v>0.3107960744097778</v>
       </c>
       <c r="R2">
-        <v>81.697127384928</v>
+        <v>2.797164669688</v>
       </c>
       <c r="S2">
-        <v>0.01082761511792015</v>
+        <v>0.0005853826023884709</v>
       </c>
       <c r="T2">
-        <v>0.01160776170782616</v>
+        <v>0.0006101169378736265</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>2.288007333333333</v>
+        <v>0.1753503333333334</v>
       </c>
       <c r="H3">
-        <v>6.864021999999999</v>
+        <v>0.526051</v>
       </c>
       <c r="I3">
-        <v>0.02156675330991967</v>
+        <v>0.002060424806616007</v>
       </c>
       <c r="J3">
-        <v>0.0231206715889534</v>
+        <v>0.002147484514575959</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.236864</v>
       </c>
       <c r="O3">
-        <v>0.009991230508550358</v>
+        <v>0.01265586741773478</v>
       </c>
       <c r="P3">
-        <v>0.009991230508550358</v>
+        <v>0.01265586741773478</v>
       </c>
       <c r="Q3">
-        <v>0.1806488563342222</v>
+        <v>0.01384472711822222</v>
       </c>
       <c r="R3">
-        <v>1.625839707008</v>
+        <v>0.124602544064</v>
       </c>
       <c r="S3">
-        <v>0.0002154784036404489</v>
+        <v>2.6076463176744E-05</v>
       </c>
       <c r="T3">
-        <v>0.0002310039593577247</v>
+        <v>2.717827929811187E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>2.288007333333333</v>
+        <v>0.1753503333333334</v>
       </c>
       <c r="H4">
-        <v>6.864021999999999</v>
+        <v>0.526051</v>
       </c>
       <c r="I4">
-        <v>0.02156675330991967</v>
+        <v>0.002060424806616007</v>
       </c>
       <c r="J4">
-        <v>0.0231206715889534</v>
+        <v>0.002147484514575959</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.367314666666667</v>
+        <v>2.471359333333333</v>
       </c>
       <c r="N4">
-        <v>7.101944</v>
+        <v>7.414078</v>
       </c>
       <c r="O4">
-        <v>0.2995692024233998</v>
+        <v>0.3961411957610453</v>
       </c>
       <c r="P4">
-        <v>0.2995692024233998</v>
+        <v>0.3961411957610453</v>
       </c>
       <c r="Q4">
-        <v>5.416433317640889</v>
+        <v>0.4333536828864445</v>
       </c>
       <c r="R4">
-        <v>48.74789985876799</v>
+        <v>3.900183145978001</v>
       </c>
       <c r="S4">
-        <v>0.006460735087914855</v>
+        <v>0.0008162191466685855</v>
       </c>
       <c r="T4">
-        <v>0.006926241147396128</v>
+        <v>0.0008507070834824484</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>2.288007333333333</v>
+        <v>0.1753503333333334</v>
       </c>
       <c r="H5">
-        <v>6.864021999999999</v>
+        <v>0.526051</v>
       </c>
       <c r="I5">
-        <v>0.02156675330991967</v>
+        <v>0.002060424806616007</v>
       </c>
       <c r="J5">
-        <v>0.0231206715889534</v>
+        <v>0.002147484514575959</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.488719333333333</v>
+        <v>1.915838666666666</v>
       </c>
       <c r="N5">
-        <v>4.466158</v>
+        <v>5.747515999999999</v>
       </c>
       <c r="O5">
-        <v>0.1883883328222366</v>
+        <v>0.30709521276897</v>
       </c>
       <c r="P5">
-        <v>0.1883883328222366</v>
+        <v>0.3070952127689701</v>
       </c>
       <c r="Q5">
-        <v>3.406200751941777</v>
+        <v>0.3359429488128889</v>
       </c>
       <c r="R5">
-        <v>30.655806767476</v>
+        <v>3.023486539316</v>
       </c>
       <c r="S5">
-        <v>0.004062924700444221</v>
+        <v>0.0006327465943822065</v>
       </c>
       <c r="T5">
-        <v>0.004355664774373383</v>
+        <v>0.0006594822139217725</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>198.728852</v>
       </c>
       <c r="I6">
-        <v>0.6244059425578089</v>
+        <v>0.7783767285892832</v>
       </c>
       <c r="J6">
-        <v>0.6693953664982024</v>
+        <v>0.8112656990851791</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.967408</v>
+        <v>1.772429333333333</v>
       </c>
       <c r="N6">
-        <v>11.902224</v>
+        <v>5.317288</v>
       </c>
       <c r="O6">
-        <v>0.5020512342458132</v>
+        <v>0.2841077240522499</v>
       </c>
       <c r="P6">
-        <v>0.5020512342458132</v>
+        <v>0.2841077240522499</v>
       </c>
       <c r="Q6">
-        <v>262.8128124185387</v>
+        <v>117.4109488881529</v>
       </c>
       <c r="R6">
-        <v>2365.315311766848</v>
+        <v>1056.698539993376</v>
       </c>
       <c r="S6">
-        <v>0.3134837741315683</v>
+        <v>0.2211428408147371</v>
       </c>
       <c r="T6">
-        <v>0.336070769948851</v>
+        <v>0.2304868513687477</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>198.728852</v>
       </c>
       <c r="I7">
-        <v>0.6244059425578089</v>
+        <v>0.7783767285892832</v>
       </c>
       <c r="J7">
-        <v>0.6693953664982024</v>
+        <v>0.8112656990851791</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -874,10 +874,10 @@
         <v>0.236864</v>
       </c>
       <c r="O7">
-        <v>0.009991230508550358</v>
+        <v>0.01265586741773478</v>
       </c>
       <c r="P7">
-        <v>0.009991230508550358</v>
+        <v>0.01265586741773478</v>
       </c>
       <c r="Q7">
         <v>5.23019008890311</v>
@@ -886,10 +886,10 @@
         <v>47.071710800128</v>
       </c>
       <c r="S7">
-        <v>0.006238583703003723</v>
+        <v>0.009851032678076094</v>
       </c>
       <c r="T7">
-        <v>0.006688083408039089</v>
+        <v>0.01026727112817795</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>198.728852</v>
       </c>
       <c r="I8">
-        <v>0.6244059425578089</v>
+        <v>0.7783767285892832</v>
       </c>
       <c r="J8">
-        <v>0.6693953664982024</v>
+        <v>0.8112656990851791</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.367314666666667</v>
+        <v>2.471359333333333</v>
       </c>
       <c r="N8">
-        <v>7.101944</v>
+        <v>7.414078</v>
       </c>
       <c r="O8">
-        <v>0.2995692024233998</v>
+        <v>0.3961411957610453</v>
       </c>
       <c r="P8">
-        <v>0.2995692024233998</v>
+        <v>0.3961411957610453</v>
       </c>
       <c r="Q8">
-        <v>156.8179086764764</v>
+        <v>163.7101343976062</v>
       </c>
       <c r="R8">
-        <v>1411.361178088288</v>
+        <v>1473.391209578456</v>
       </c>
       <c r="S8">
-        <v>0.187052790200474</v>
+        <v>0.3083470880159292</v>
       </c>
       <c r="T8">
-        <v>0.2005302360477859</v>
+        <v>0.3213757641155232</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>198.728852</v>
       </c>
       <c r="I9">
-        <v>0.6244059425578089</v>
+        <v>0.7783767285892832</v>
       </c>
       <c r="J9">
-        <v>0.6693953664982024</v>
+        <v>0.8112656990851791</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.488719333333333</v>
+        <v>1.915838666666666</v>
       </c>
       <c r="N9">
-        <v>4.466158</v>
+        <v>5.747515999999999</v>
       </c>
       <c r="O9">
-        <v>0.1883883328222366</v>
+        <v>0.30709521276897</v>
       </c>
       <c r="P9">
-        <v>0.1883883328222366</v>
+        <v>0.3070952127689701</v>
       </c>
       <c r="Q9">
-        <v>98.61716135451287</v>
+        <v>126.9108062812924</v>
       </c>
       <c r="R9">
-        <v>887.554452190616</v>
+        <v>1142.197256531632</v>
       </c>
       <c r="S9">
-        <v>0.1176307945227629</v>
+        <v>0.2390357670805408</v>
       </c>
       <c r="T9">
-        <v>0.1261062770935264</v>
+        <v>0.2491358124727303</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>6.677665333333334</v>
+        <v>0.8839399999999999</v>
       </c>
       <c r="H10">
-        <v>20.032996</v>
+        <v>2.65182</v>
       </c>
       <c r="I10">
-        <v>0.06294366230041333</v>
+        <v>0.01038658934339153</v>
       </c>
       <c r="J10">
-        <v>0.06747885153322894</v>
+        <v>0.01082545681966733</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.967408</v>
+        <v>1.772429333333333</v>
       </c>
       <c r="N10">
-        <v>11.902224</v>
+        <v>5.317288</v>
       </c>
       <c r="O10">
-        <v>0.5020512342458132</v>
+        <v>0.2841077240522499</v>
       </c>
       <c r="P10">
-        <v>0.5020512342458132</v>
+        <v>0.2841077240522499</v>
       </c>
       <c r="Q10">
-        <v>26.49302286478934</v>
+        <v>1.566721184906666</v>
       </c>
       <c r="R10">
-        <v>238.437205783104</v>
+        <v>14.10049066416</v>
       </c>
       <c r="S10">
-        <v>0.03160094334587418</v>
+        <v>0.002950910259016321</v>
       </c>
       <c r="T10">
-        <v>0.03387784069774757</v>
+        <v>0.003075595898861593</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>6.677665333333334</v>
+        <v>0.8839399999999999</v>
       </c>
       <c r="H11">
-        <v>20.032996</v>
+        <v>2.65182</v>
       </c>
       <c r="I11">
-        <v>0.06294366230041333</v>
+        <v>0.01038658934339153</v>
       </c>
       <c r="J11">
-        <v>0.06747885153322894</v>
+        <v>0.01082545681966733</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1122,22 +1122,22 @@
         <v>0.236864</v>
       </c>
       <c r="O11">
-        <v>0.009991230508550358</v>
+        <v>0.01265586741773478</v>
       </c>
       <c r="P11">
-        <v>0.009991230508550358</v>
+        <v>0.01265586741773478</v>
       </c>
       <c r="Q11">
-        <v>0.5272328405048889</v>
+        <v>0.06979118805333333</v>
       </c>
       <c r="R11">
-        <v>4.745095564544001</v>
+        <v>0.6281206924799999</v>
       </c>
       <c r="S11">
-        <v>0.0006288846390957807</v>
+        <v>0.0001314512976524201</v>
       </c>
       <c r="T11">
-        <v>0.0006741967601207371</v>
+        <v>0.0001370055462461225</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>6.677665333333334</v>
+        <v>0.8839399999999999</v>
       </c>
       <c r="H12">
-        <v>20.032996</v>
+        <v>2.65182</v>
       </c>
       <c r="I12">
-        <v>0.06294366230041333</v>
+        <v>0.01038658934339153</v>
       </c>
       <c r="J12">
-        <v>0.06747885153322894</v>
+        <v>0.01082545681966733</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.367314666666667</v>
+        <v>2.471359333333333</v>
       </c>
       <c r="N12">
-        <v>7.101944</v>
+        <v>7.414078</v>
       </c>
       <c r="O12">
-        <v>0.2995692024233998</v>
+        <v>0.3961411957610453</v>
       </c>
       <c r="P12">
-        <v>0.2995692024233998</v>
+        <v>0.3961411957610453</v>
       </c>
       <c r="Q12">
-        <v>15.80813508269156</v>
+        <v>2.184533369106667</v>
       </c>
       <c r="R12">
-        <v>142.273215744224</v>
+        <v>19.66080032196</v>
       </c>
       <c r="S12">
-        <v>0.01885598271294264</v>
+        <v>0.004114555922370052</v>
       </c>
       <c r="T12">
-        <v>0.0202145857342564</v>
+        <v>0.00428840940920258</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>6.677665333333334</v>
+        <v>0.8839399999999999</v>
       </c>
       <c r="H13">
-        <v>20.032996</v>
+        <v>2.65182</v>
       </c>
       <c r="I13">
-        <v>0.06294366230041333</v>
+        <v>0.01038658934339153</v>
       </c>
       <c r="J13">
-        <v>0.06747885153322894</v>
+        <v>0.01082545681966733</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.488719333333333</v>
+        <v>1.915838666666666</v>
       </c>
       <c r="N13">
-        <v>4.466158</v>
+        <v>5.747515999999999</v>
       </c>
       <c r="O13">
-        <v>0.1883883328222366</v>
+        <v>0.30709521276897</v>
       </c>
       <c r="P13">
-        <v>0.1883883328222366</v>
+        <v>0.3070952127689701</v>
       </c>
       <c r="Q13">
-        <v>9.941169483263112</v>
+        <v>1.693486431013333</v>
       </c>
       <c r="R13">
-        <v>89.47052534936802</v>
+        <v>15.24137787912</v>
       </c>
       <c r="S13">
-        <v>0.01185785160250073</v>
+        <v>0.003189671864352739</v>
       </c>
       <c r="T13">
-        <v>0.01271222834110423</v>
+        <v>0.003324445965357037</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>21.390534</v>
+        <v>10.3504265</v>
       </c>
       <c r="H14">
-        <v>42.781068</v>
+        <v>20.700853</v>
       </c>
       <c r="I14">
-        <v>0.2016271378262407</v>
+        <v>0.1216209579659901</v>
       </c>
       <c r="J14">
-        <v>0.1441031254638583</v>
+        <v>0.0845065616375851</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.967408</v>
+        <v>1.772429333333333</v>
       </c>
       <c r="N14">
-        <v>11.902224</v>
+        <v>5.317288</v>
       </c>
       <c r="O14">
-        <v>0.5020512342458132</v>
+        <v>0.2841077240522499</v>
       </c>
       <c r="P14">
-        <v>0.5020512342458132</v>
+        <v>0.2841077240522499</v>
       </c>
       <c r="Q14">
-        <v>84.86497571587202</v>
+        <v>18.34539954111066</v>
       </c>
       <c r="R14">
-        <v>509.1898542952321</v>
+        <v>110.072397246664</v>
       </c>
       <c r="S14">
-        <v>0.1012271534031148</v>
+        <v>0.0345534535647718</v>
       </c>
       <c r="T14">
-        <v>0.07234715199780932</v>
+        <v>0.02400896689433548</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>21.390534</v>
+        <v>10.3504265</v>
       </c>
       <c r="H15">
-        <v>42.781068</v>
+        <v>20.700853</v>
       </c>
       <c r="I15">
-        <v>0.2016271378262407</v>
+        <v>0.1216209579659901</v>
       </c>
       <c r="J15">
-        <v>0.1441031254638583</v>
+        <v>0.0845065616375851</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1370,22 +1370,22 @@
         <v>0.236864</v>
       </c>
       <c r="O15">
-        <v>0.009991230508550358</v>
+        <v>0.01265586741773478</v>
       </c>
       <c r="P15">
-        <v>0.009991230508550358</v>
+        <v>0.01265586741773478</v>
       </c>
       <c r="Q15">
-        <v>1.688882481792</v>
+        <v>0.8172144741653332</v>
       </c>
       <c r="R15">
-        <v>10.133294890752</v>
+        <v>4.903286844992</v>
       </c>
       <c r="S15">
-        <v>0.002014503210801224</v>
+        <v>0.001539218719235465</v>
       </c>
       <c r="T15">
-        <v>0.001439767543511961</v>
+        <v>0.001069503840013909</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>21.390534</v>
+        <v>10.3504265</v>
       </c>
       <c r="H16">
-        <v>42.781068</v>
+        <v>20.700853</v>
       </c>
       <c r="I16">
-        <v>0.2016271378262407</v>
+        <v>0.1216209579659901</v>
       </c>
       <c r="J16">
-        <v>0.1441031254638583</v>
+        <v>0.0845065616375851</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.367314666666667</v>
+        <v>2.471359333333333</v>
       </c>
       <c r="N16">
-        <v>7.101944</v>
+        <v>7.414078</v>
       </c>
       <c r="O16">
-        <v>0.2995692024233998</v>
+        <v>0.3961411957610453</v>
       </c>
       <c r="P16">
-        <v>0.2995692024233998</v>
+        <v>0.3961411957610453</v>
       </c>
       <c r="Q16">
-        <v>50.63812486603201</v>
+        <v>25.57962313475567</v>
       </c>
       <c r="R16">
-        <v>303.828749196192</v>
+        <v>153.477738808534</v>
       </c>
       <c r="S16">
-        <v>0.06040128086551982</v>
+        <v>0.04817907171825115</v>
       </c>
       <c r="T16">
-        <v>0.04316885836192714</v>
+        <v>0.03347653037676745</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>21.390534</v>
+        <v>10.3504265</v>
       </c>
       <c r="H17">
-        <v>42.781068</v>
+        <v>20.700853</v>
       </c>
       <c r="I17">
-        <v>0.2016271378262407</v>
+        <v>0.1216209579659901</v>
       </c>
       <c r="J17">
-        <v>0.1441031254638583</v>
+        <v>0.0845065616375851</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.488719333333333</v>
+        <v>1.915838666666666</v>
       </c>
       <c r="N17">
-        <v>4.466158</v>
+        <v>5.747515999999999</v>
       </c>
       <c r="O17">
-        <v>0.1883883328222366</v>
+        <v>0.30709521276897</v>
       </c>
       <c r="P17">
-        <v>0.1883883328222366</v>
+        <v>0.3070952127689701</v>
       </c>
       <c r="Q17">
-        <v>31.844501516124</v>
+        <v>19.82974730519133</v>
       </c>
       <c r="R17">
-        <v>191.067009096744</v>
+        <v>118.978483831148</v>
       </c>
       <c r="S17">
-        <v>0.0379842003468048</v>
+        <v>0.03734921396373169</v>
       </c>
       <c r="T17">
-        <v>0.02714734756060986</v>
+        <v>0.02595156052646828</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>9.490401</v>
+        <v>7.451303666666667</v>
       </c>
       <c r="H18">
-        <v>28.471203</v>
+        <v>22.353911</v>
       </c>
       <c r="I18">
-        <v>0.08945650400561726</v>
+        <v>0.08755529929471939</v>
       </c>
       <c r="J18">
-        <v>0.09590198491575708</v>
+        <v>0.09125479794299257</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.967408</v>
+        <v>1.772429333333333</v>
       </c>
       <c r="N18">
-        <v>11.902224</v>
+        <v>5.317288</v>
       </c>
       <c r="O18">
-        <v>0.5020512342458132</v>
+        <v>0.2841077240522499</v>
       </c>
       <c r="P18">
-        <v>0.5020512342458132</v>
+        <v>0.2841077240522499</v>
       </c>
       <c r="Q18">
-        <v>37.65229285060801</v>
+        <v>13.20690919037422</v>
       </c>
       <c r="R18">
-        <v>338.870635655472</v>
+        <v>118.862182713368</v>
       </c>
       <c r="S18">
-        <v>0.04491174824733568</v>
+        <v>0.02487513681133629</v>
       </c>
       <c r="T18">
-        <v>0.0481477098935792</v>
+        <v>0.02592619295243156</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>9.490401</v>
+        <v>7.451303666666667</v>
       </c>
       <c r="H19">
-        <v>28.471203</v>
+        <v>22.353911</v>
       </c>
       <c r="I19">
-        <v>0.08945650400561726</v>
+        <v>0.08755529929471939</v>
       </c>
       <c r="J19">
-        <v>0.09590198491575708</v>
+        <v>0.09125479794299257</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1618,22 +1618,22 @@
         <v>0.236864</v>
       </c>
       <c r="O19">
-        <v>0.009991230508550358</v>
+        <v>0.01265586741773478</v>
       </c>
       <c r="P19">
-        <v>0.009991230508550358</v>
+        <v>0.01265586741773478</v>
       </c>
       <c r="Q19">
-        <v>0.7493114474879999</v>
+        <v>0.5883151972337778</v>
       </c>
       <c r="R19">
-        <v>6.743803027392</v>
+        <v>5.294836775104</v>
       </c>
       <c r="S19">
-        <v>0.0008937805520091805</v>
+        <v>0.001108088259594056</v>
       </c>
       <c r="T19">
-        <v>0.0009581788375208484</v>
+        <v>0.00115490862399869</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>9.490401</v>
+        <v>7.451303666666667</v>
       </c>
       <c r="H20">
-        <v>28.471203</v>
+        <v>22.353911</v>
       </c>
       <c r="I20">
-        <v>0.08945650400561726</v>
+        <v>0.08755529929471939</v>
       </c>
       <c r="J20">
-        <v>0.09590198491575708</v>
+        <v>0.09125479794299257</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.367314666666667</v>
+        <v>2.471359333333333</v>
       </c>
       <c r="N20">
-        <v>7.101944</v>
+        <v>7.414078</v>
       </c>
       <c r="O20">
-        <v>0.2995692024233998</v>
+        <v>0.3961411957610453</v>
       </c>
       <c r="P20">
-        <v>0.2995692024233998</v>
+        <v>0.3961411957610453</v>
       </c>
       <c r="Q20">
-        <v>22.466765479848</v>
+        <v>18.41484886211756</v>
       </c>
       <c r="R20">
-        <v>202.200889318632</v>
+        <v>165.733639759058</v>
       </c>
       <c r="S20">
-        <v>0.02679841355654843</v>
+        <v>0.03468426095782635</v>
       </c>
       <c r="T20">
-        <v>0.02872928113203426</v>
+        <v>0.03614978477606966</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>9.490401</v>
+        <v>7.451303666666667</v>
       </c>
       <c r="H21">
-        <v>28.471203</v>
+        <v>22.353911</v>
       </c>
       <c r="I21">
-        <v>0.08945650400561726</v>
+        <v>0.08755529929471939</v>
       </c>
       <c r="J21">
-        <v>0.09590198491575708</v>
+        <v>0.09125479794299257</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.488719333333333</v>
+        <v>1.915838666666666</v>
       </c>
       <c r="N21">
-        <v>4.466158</v>
+        <v>5.747515999999999</v>
       </c>
       <c r="O21">
-        <v>0.1883883328222366</v>
+        <v>0.30709521276897</v>
       </c>
       <c r="P21">
-        <v>0.1883883328222366</v>
+        <v>0.3070952127689701</v>
       </c>
       <c r="Q21">
-        <v>14.128543449786</v>
+        <v>14.27549568167511</v>
       </c>
       <c r="R21">
-        <v>127.156891048074</v>
+        <v>128.479461135076</v>
       </c>
       <c r="S21">
-        <v>0.01685256164972397</v>
+        <v>0.0268878132659627</v>
       </c>
       <c r="T21">
-        <v>0.01806681505262276</v>
+        <v>0.02802391159049267</v>
       </c>
     </row>
   </sheetData>
